--- a/teaching/traditional_assets/database/data/estonia/estonia_real_estate_operations_services.xlsx
+++ b/teaching/traditional_assets/database/data/estonia/estonia_real_estate_operations_services.xlsx
@@ -590,8 +590,26 @@
           <t>Real Estate (Operations &amp; Services)</t>
         </is>
       </c>
+      <c r="E2">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-5</v>
+      </c>
+      <c r="J2">
+        <v>-5</v>
+      </c>
       <c r="K2">
-        <v>-0.037</v>
+        <v>0.425</v>
+      </c>
+      <c r="L2">
+        <v>85</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -600,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -609,37 +627,37 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.133</v>
+        <v>0.178</v>
       </c>
       <c r="V2">
-        <v>0.05406504065040651</v>
+        <v>0.05779220779220779</v>
       </c>
       <c r="W2">
-        <v>-0.01770334928229665</v>
+        <v>0.2202072538860104</v>
       </c>
       <c r="X2">
-        <v>0.04830335980555386</v>
+        <v>0.03819298627880671</v>
       </c>
       <c r="Y2">
-        <v>-0.0660067090878505</v>
+        <v>0.1820142676072037</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.002782415136338342</v>
       </c>
       <c r="AA2">
-        <v>-0.01396917148362235</v>
+        <v>-0.01391207568169171</v>
       </c>
       <c r="AB2">
-        <v>0.04830335980555386</v>
+        <v>0.03819298627880671</v>
       </c>
       <c r="AC2">
-        <v>-0.06227253128917621</v>
+        <v>-0.05210506196049841</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -651,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.133</v>
+        <v>-0.178</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -660,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.05715513536742588</v>
+        <v>-0.06133700895933838</v>
       </c>
       <c r="AK2">
-        <v>-0.07401224262659989</v>
+        <v>-0.07665805340223944</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -688,8 +706,26 @@
           <t>Real Estate (Operations &amp; Services)</t>
         </is>
       </c>
+      <c r="E3">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-5</v>
+      </c>
+      <c r="J3">
+        <v>-5</v>
+      </c>
       <c r="K3">
-        <v>-0.037</v>
+        <v>0.425</v>
+      </c>
+      <c r="L3">
+        <v>85</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -698,7 +734,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -707,37 +743,37 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.133</v>
+        <v>0.178</v>
       </c>
       <c r="V3">
-        <v>0.05406504065040651</v>
+        <v>0.05779220779220779</v>
       </c>
       <c r="W3">
-        <v>-0.01770334928229665</v>
+        <v>0.2202072538860104</v>
       </c>
       <c r="X3">
-        <v>0.04830335980555386</v>
+        <v>0.03819298627880671</v>
       </c>
       <c r="Y3">
-        <v>-0.0660067090878505</v>
+        <v>0.1820142676072037</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.002782415136338342</v>
       </c>
       <c r="AA3">
-        <v>-0.01396917148362235</v>
+        <v>-0.01391207568169171</v>
       </c>
       <c r="AB3">
-        <v>0.04830335980555386</v>
+        <v>0.03819298627880671</v>
       </c>
       <c r="AC3">
-        <v>-0.06227253128917621</v>
+        <v>-0.05210506196049841</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -749,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.133</v>
+        <v>-0.178</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -758,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.05715513536742588</v>
+        <v>-0.06133700895933838</v>
       </c>
       <c r="AK3">
-        <v>-0.07401224262659989</v>
+        <v>-0.07665805340223944</v>
       </c>
       <c r="AL3">
         <v>0</v>
